--- a/curation/draft/package13/R13_BC_SDTM_QRS_Rutgeerts.xlsx
+++ b/curation/draft/package13/R13_BC_SDTM_QRS_Rutgeerts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A20E5-3866-472F-9FEC-5D249D6F122E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653B611-111A-48BA-B9F0-AD61A95C57CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_RUTGEERTS" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>C211913</t>
   </si>
   <si>
-    <t>ordinal</t>
-  </si>
-  <si>
     <t>C46126</t>
   </si>
   <si>
@@ -395,6 +392,9 @@
   </si>
   <si>
     <t>QRS; Clinical or Research Assessment Classification; Rutgeerts Score Clinical Classification; RUTGEERTS SCORE; RUTG01; Rutgeerts Score Clinical Classification Question</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
   </si>
 </sst>
 </file>
@@ -759,9 +759,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,227 +849,227 @@
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="N5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="Q6" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="M7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="M8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O8" s="4" t="s">
+      <c r="P8" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C4D5-5947-423F-AB5C-A7EF43995234}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1228,422 +1228,422 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="T2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="W3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="AD3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AE3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AF3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="W4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U5" s="4" t="s">
+      <c r="W5" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="X5" s="4">
         <v>20</v>
       </c>
       <c r="AA5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AB5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="AF5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="W6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X6" s="4">
         <v>1</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="AF6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="AA7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
